--- a/biology/Botanique/Vriesea/Vriesea.xlsx
+++ b/biology/Botanique/Vriesea/Vriesea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vriesea est un genre de plantes de la famille des Bromeliaceae, sous-famille des Tillandsioideae.
 Ces plantes tropicales abritent une grande variété d'insectes. Dans la nature, les grenouilles peuvent passer toute leur vie dans ces Broméliacées. Ce genre est étroitement lié au genre Guzmania. Les deux genres Guzmania et Vriesea ont des fruits qui sont des capsules sèches qui se fendent pour libérer des graines munies d'aigrettes semblables à ceux des pissenlits. La plupart des espèces de Vriesea sont des plantes épiphytes qui poussent hors-sol sur les arbres. Ils n'ont pas de racines mais reçoivent tous les éléments nutritifs dont ils ont besoin par la « citerne » formée par la rosette de feuilles.
@@ -514,7 +526,9 @@
           <t>Liste des espèces[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vriesea acuminata Mez &amp; Wercklé
